--- a/Assets/Resources/Data/Level1.xlsx
+++ b/Assets/Resources/Data/Level1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\29835\Documents\Plants vs. Zombies\Assets\Resources\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F6428A7-5E13-466E-99BC-1CAC1E4A1643}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D62131A-3218-4D5F-ACE2-20E2F5E9F212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2775" yWindow="3195" windowWidth="28800" windowHeight="15345" xr2:uid="{5F3BB51B-A3EE-4FA5-B56E-76A629D94F07}"/>
+    <workbookView xWindow="2790" yWindow="5025" windowWidth="28800" windowHeight="15345" xr2:uid="{5F3BB51B-A3EE-4FA5-B56E-76A629D94F07}"/>
   </bookViews>
   <sheets>
     <sheet name="Zombie" sheetId="1" r:id="rId1"/>
@@ -463,10 +463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEDCA7DF-9DC3-40BE-8C50-AA104CAF4003}">
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="G42" sqref="G42"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -525,13 +525,13 @@
         <v>1</v>
       </c>
       <c r="D3" s="1">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E3" s="1">
         <v>1</v>
       </c>
       <c r="F3" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -542,16 +542,16 @@
         <v>1</v>
       </c>
       <c r="C4" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" s="1">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
       </c>
       <c r="F4" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -562,16 +562,16 @@
         <v>1</v>
       </c>
       <c r="C5" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" s="1">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
       </c>
       <c r="F5" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -582,10 +582,10 @@
         <v>1</v>
       </c>
       <c r="C6" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D6" s="1">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
@@ -602,10 +602,10 @@
         <v>1</v>
       </c>
       <c r="C7" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D7" s="1">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
@@ -622,10 +622,10 @@
         <v>1</v>
       </c>
       <c r="C8" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D8" s="1">
-        <v>4</v>
+        <v>69</v>
       </c>
       <c r="E8" s="1">
         <v>1</v>
@@ -642,16 +642,16 @@
         <v>1</v>
       </c>
       <c r="C9" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D9" s="1">
-        <v>5</v>
+        <v>89</v>
       </c>
       <c r="E9" s="1">
         <v>1</v>
       </c>
       <c r="F9" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -662,10 +662,10 @@
         <v>1</v>
       </c>
       <c r="C10" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D10" s="1">
-        <v>6</v>
+        <v>92</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
@@ -682,16 +682,16 @@
         <v>1</v>
       </c>
       <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1">
+        <v>97</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
         <v>4</v>
-      </c>
-      <c r="D11" s="1">
-        <v>6</v>
-      </c>
-      <c r="E11" s="1">
-        <v>1</v>
-      </c>
-      <c r="F11" s="1">
-        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -702,16 +702,16 @@
         <v>1</v>
       </c>
       <c r="C12" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D12" s="1">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E12" s="1">
         <v>1</v>
       </c>
       <c r="F12" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -722,16 +722,16 @@
         <v>1</v>
       </c>
       <c r="C13" s="1">
+        <v>2</v>
+      </c>
+      <c r="D13" s="1">
         <v>4</v>
       </c>
-      <c r="D13" s="1">
-        <v>10</v>
-      </c>
       <c r="E13" s="1">
         <v>1</v>
       </c>
       <c r="F13" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -742,16 +742,16 @@
         <v>1</v>
       </c>
       <c r="C14" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D14" s="1">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E14" s="1">
         <v>1</v>
       </c>
       <c r="F14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -762,16 +762,16 @@
         <v>1</v>
       </c>
       <c r="C15" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D15" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E15" s="1">
         <v>1</v>
       </c>
       <c r="F15" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -782,7 +782,7 @@
         <v>1</v>
       </c>
       <c r="C16" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D16" s="1">
         <v>7</v>
@@ -791,7 +791,7 @@
         <v>1</v>
       </c>
       <c r="F16" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -802,16 +802,16 @@
         <v>1</v>
       </c>
       <c r="C17" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D17" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E17" s="1">
         <v>1</v>
       </c>
       <c r="F17" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -822,16 +822,16 @@
         <v>1</v>
       </c>
       <c r="C18" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D18" s="1">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E18" s="1">
         <v>1</v>
       </c>
       <c r="F18" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -842,16 +842,16 @@
         <v>1</v>
       </c>
       <c r="C19" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D19" s="1">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E19" s="1">
         <v>1</v>
       </c>
       <c r="F19" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -862,10 +862,10 @@
         <v>1</v>
       </c>
       <c r="C20" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D20" s="1">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E20" s="1">
         <v>1</v>
@@ -882,16 +882,16 @@
         <v>1</v>
       </c>
       <c r="C21" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D21" s="1">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E21" s="1">
         <v>1</v>
       </c>
       <c r="F21" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -902,380 +902,21 @@
         <v>1</v>
       </c>
       <c r="C22" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D22" s="1">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E22" s="1">
         <v>1</v>
       </c>
       <c r="F22" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
-        <v>20</v>
-      </c>
-      <c r="B23" s="1">
-        <v>1</v>
-      </c>
-      <c r="C23" s="1">
-        <v>5</v>
-      </c>
-      <c r="D23" s="1">
-        <v>23</v>
-      </c>
-      <c r="E23" s="1">
-        <v>1</v>
-      </c>
-      <c r="F23" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
-        <v>21</v>
-      </c>
-      <c r="B24" s="1">
-        <v>1</v>
-      </c>
-      <c r="C24" s="1">
-        <v>6</v>
-      </c>
-      <c r="D24" s="1">
-        <v>8</v>
-      </c>
-      <c r="E24" s="1">
-        <v>1</v>
-      </c>
-      <c r="F24" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
-        <v>22</v>
-      </c>
-      <c r="B25" s="1">
-        <v>1</v>
-      </c>
-      <c r="C25" s="1">
-        <v>6</v>
-      </c>
-      <c r="D25" s="1">
-        <v>9</v>
-      </c>
-      <c r="E25" s="1">
-        <v>1</v>
-      </c>
-      <c r="F25" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="1">
-        <v>23</v>
-      </c>
-      <c r="B26" s="1">
-        <v>1</v>
-      </c>
-      <c r="C26" s="1">
-        <v>6</v>
-      </c>
-      <c r="D26" s="1">
-        <v>10</v>
-      </c>
-      <c r="E26" s="1">
-        <v>1</v>
-      </c>
-      <c r="F26" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="1">
-        <v>24</v>
-      </c>
-      <c r="B27" s="1">
-        <v>1</v>
-      </c>
-      <c r="C27" s="1">
-        <v>6</v>
-      </c>
-      <c r="D27" s="1">
-        <v>11</v>
-      </c>
-      <c r="E27" s="1">
-        <v>1</v>
-      </c>
-      <c r="F27" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="1">
-        <v>25</v>
-      </c>
-      <c r="B28" s="1">
-        <v>1</v>
-      </c>
-      <c r="C28" s="1">
-        <v>6</v>
-      </c>
-      <c r="D28" s="1">
-        <v>11</v>
-      </c>
-      <c r="E28" s="1">
-        <v>1</v>
-      </c>
-      <c r="F28" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="1">
-        <v>26</v>
-      </c>
-      <c r="B29" s="1">
-        <v>1</v>
-      </c>
-      <c r="C29" s="1">
-        <v>6</v>
-      </c>
-      <c r="D29" s="1">
-        <v>11</v>
-      </c>
-      <c r="E29" s="1">
-        <v>1</v>
-      </c>
-      <c r="F29" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="1">
-        <v>27</v>
-      </c>
-      <c r="B30" s="1">
-        <v>1</v>
-      </c>
-      <c r="C30" s="1">
-        <v>6</v>
-      </c>
-      <c r="D30" s="1">
-        <v>11</v>
-      </c>
-      <c r="E30" s="1">
-        <v>1</v>
-      </c>
-      <c r="F30" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="1">
-        <v>28</v>
-      </c>
-      <c r="B31" s="1">
-        <v>1</v>
-      </c>
-      <c r="C31" s="1">
-        <v>6</v>
-      </c>
-      <c r="D31" s="1">
-        <v>11</v>
-      </c>
-      <c r="E31" s="1">
-        <v>1</v>
-      </c>
-      <c r="F31" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="1">
-        <v>29</v>
-      </c>
-      <c r="B32" s="1">
-        <v>1</v>
-      </c>
-      <c r="C32" s="1">
-        <v>6</v>
-      </c>
-      <c r="D32" s="1">
-        <v>11</v>
-      </c>
-      <c r="E32" s="1">
-        <v>1</v>
-      </c>
-      <c r="F32" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="1">
-        <v>30</v>
-      </c>
-      <c r="B33" s="1">
-        <v>1</v>
-      </c>
-      <c r="C33" s="1">
-        <v>6</v>
-      </c>
-      <c r="D33" s="1">
-        <v>11</v>
-      </c>
-      <c r="E33" s="1">
-        <v>1</v>
-      </c>
-      <c r="F33" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="1">
-        <v>31</v>
-      </c>
-      <c r="B34" s="1">
-        <v>1</v>
-      </c>
-      <c r="C34" s="1">
-        <v>6</v>
-      </c>
-      <c r="D34" s="1">
-        <v>11</v>
-      </c>
-      <c r="E34" s="1">
-        <v>1</v>
-      </c>
-      <c r="F34" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="1">
-        <v>32</v>
-      </c>
-      <c r="B35" s="1">
-        <v>1</v>
-      </c>
-      <c r="C35" s="1">
-        <v>6</v>
-      </c>
-      <c r="D35" s="1">
-        <v>14</v>
-      </c>
-      <c r="E35" s="1">
-        <v>1</v>
-      </c>
-      <c r="F35" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="1">
-        <v>33</v>
-      </c>
-      <c r="B36" s="1">
-        <v>1</v>
-      </c>
-      <c r="C36" s="1">
-        <v>6</v>
-      </c>
-      <c r="D36" s="1">
-        <v>16</v>
-      </c>
-      <c r="E36" s="1">
-        <v>1</v>
-      </c>
-      <c r="F36" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="1">
-        <v>34</v>
-      </c>
-      <c r="B37" s="1">
-        <v>1</v>
-      </c>
-      <c r="C37" s="1">
-        <v>6</v>
-      </c>
-      <c r="D37" s="1">
-        <v>20</v>
-      </c>
-      <c r="E37" s="1">
-        <v>1</v>
-      </c>
-      <c r="F37" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="1">
-        <v>35</v>
-      </c>
-      <c r="B38" s="1">
-        <v>1</v>
-      </c>
-      <c r="C38" s="1">
-        <v>6</v>
-      </c>
-      <c r="D38" s="1">
-        <v>24</v>
-      </c>
-      <c r="E38" s="1">
-        <v>1</v>
-      </c>
-      <c r="F38" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="1">
-        <v>36</v>
-      </c>
-      <c r="B39" s="1">
-        <v>1</v>
-      </c>
-      <c r="C39" s="1">
-        <v>6</v>
-      </c>
-      <c r="D39" s="1">
-        <v>24</v>
-      </c>
-      <c r="E39" s="1">
-        <v>1</v>
-      </c>
-      <c r="F39" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="1">
-        <v>37</v>
-      </c>
-      <c r="B40" s="1">
-        <v>1</v>
-      </c>
-      <c r="C40" s="1">
-        <v>6</v>
-      </c>
-      <c r="D40" s="1">
-        <v>24</v>
-      </c>
-      <c r="E40" s="1">
-        <v>1</v>
-      </c>
-      <c r="F40" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>